--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_beg.xlsx
@@ -4128,7 +4128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="여성 관광객"]  이, 이건 무슨 냄새지….. 속이 매스꺼워……
+    <t xml:space="preserve">[name="여성 관광객"]  이, 이건 무슨 냄새지…… 속이 매스꺼워……
 </t>
   </si>
   <si>
@@ -4588,7 +4588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  (상처가 썩어가고 있어, 회복이 안 돼……! 피를 흘려서 그런가……. 너무 추워……)
+    <t xml:space="preserve">[name="마리아"]  (상처가 썩어가고 있어, 회복이 안 돼……! 피를 흘려서 그런가…… 너무 추워……)
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_beg.xlsx
@@ -2428,7 +2428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  It’s “that day”. They’re not back yet.
+    <t xml:space="preserve">[name="Bald Marcin"]  It’s 'that day'. They’re not back yet.
 </t>
   </si>
   <si>
@@ -2780,7 +2780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  The previous match just ended, and the blood of the “Softwind” Knight still stains the ground. But that’s just seasoning for the next battle!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  The previous match just ended, and the blood of the 'Softwind' Knight still stains the ground. But that’s just seasoning for the next battle!
 </t>
   </si>
   <si>
@@ -2880,7 +2880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  This must be fake. What kind of fan violence can cause a battle-hardened knight to “disappear”?
+    <t xml:space="preserve">[name="Zofia"]  This must be fake. What kind of fan violence can cause a battle-hardened knight to 'disappear'?
 </t>
   </si>
   <si>
@@ -3072,7 +3072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  The “Corrupted” and “Withered” Knights! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  The 'Corrupted' and 'Withered' Knights! 
 </t>
   </si>
   <si>
@@ -3360,7 +3360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  But she’s still above the dregs of the Armorless Union, as the Platinum in that “one-two-three inverted triangle” of theirs.
+    <t xml:space="preserve">[name="Old Knight"]  But she’s still above the dregs of the Armorless Union, as the Platinum in that 'one-two-three inverted triangle' of theirs.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_beg.xlsx
@@ -2364,11 +2364,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  It’s a two on two, a rather uncommon competition format. Originally, to showcase the teamwork within the Knightclubs, it should’ve been at least three on three or four on four.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  No matter the format, you don’t have a Knightclub, so we need to find you a partner.
+    <t xml:space="preserve">[name="Zofia"]  It's a two on two, a rather uncommon competition format. Originally, to showcase the teamwork within the Knightclubs, it should've been at least three on three or four on four.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  No matter the format, you don't have a Knightclub, so we need to find you a partner.
 </t>
   </si>
   <si>
@@ -2376,15 +2376,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  The competition schedule says it’s the Snowyheel Knightclub.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  ...They have some decent archers, and even one knight that uses meteor hammers. I don’t know who you’ll end up against.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Maria’s finally reached the point where we’ll know her opponents by name alone, huh.
+    <t xml:space="preserve">[name="Zofia"]  The competition schedule says it's the Snowyheel Knightclub.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  ...They have some decent archers, and even one knight that uses meteor hammers. I don't know who you'll end up against.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Maria's finally reached the point where we'll know her opponents by name alone, huh.
 </t>
   </si>
   <si>
@@ -2392,7 +2392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  I don’t know if that’s a good thing or a bad thing...
+    <t xml:space="preserve">[name="Zofia"]  I don't know if that's a good thing or a bad thing...
 </t>
   </si>
   <si>
@@ -2400,11 +2400,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Draw on the lessons you learned from Flametail and Ashlock. Don’t tip your hand.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  It’s important to compromise and work with the corporations when you have to. Times have changed. You can’t hold onto your glory with wins alone.
+    <t xml:space="preserve">[name="Bald Marcin"]  Draw on the lessons you learned from Flametail and Ashlock. Don't tip your hand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  It's important to compromise and work with the corporations when you have to. Times have changed. You can't hold onto your glory with wins alone.
 </t>
   </si>
   <si>
@@ -2412,7 +2412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  ...Why didn’t you help me convince her last time?
+    <t xml:space="preserve">[name="Zofia"]  ...Why didn't you help me convince her last time?
 </t>
   </si>
   <si>
@@ -2420,19 +2420,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Ugh. I’ll cover it... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Where’s V and Kowal?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  It’s 'that day'. They’re not back yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Ah... They’re at the gravesite. Shit, I wanted to ask if he could help repair Maria’s equipment...
+    <t xml:space="preserve">[name="Zofia"]  Ugh. I'll cover it... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Where's V and Kowal?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  It's 'that day.' They're not back yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Ah... They're at the gravesite. Shit, I wanted to ask if he could help repair Maria's equipment...
 </t>
   </si>
   <si>
@@ -2444,11 +2444,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Eh?! Why haven’t I this before? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Either way, he’s still sworn to never touch the anvil again.
+    <t xml:space="preserve">[name="Maria"]  Eh?! Why haven't I this before? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Either way, he's still sworn to never touch the anvil again.
 </t>
   </si>
   <si>
@@ -2456,11 +2456,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  It’s hard enough for anyone to let go of the past, let alone us oldies who have nothing but the past.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Lets forget about them for now. Maria, you’ll need to fix up your equipment yourself.
+    <t xml:space="preserve">[name="Bald Marcin"]  It's hard enough for anyone to let go of the past, let alone us oldies who have nothing but the past.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Lets forget about them for now. Maria, you'll need to fix up your equipment yourself.
 </t>
   </si>
   <si>
@@ -2476,7 +2476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  That’s why I wanted to introduce you to someone. A known quantity is always safer than getting a random stranger assigned by the Association.
+    <t xml:space="preserve">[name="Zofia"]  That's why I wanted to introduce you to someone. A known quantity is always safer than getting a random stranger assigned by the Association.
 </t>
   </si>
   <si>
@@ -2484,19 +2484,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  The Fartooth Knight. She’s an expert archer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Just like you, she fought her way up as an independent knight, refusing to accept sponsorships from the corporations. I’ve heard she’s even planning to form a completely self-sufficient knightclub.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  I think you’ll be able to get along, and cover each other’s weaknesses in battle. You’ll come to understand that team battles are completely different from melees or one-on-ones.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  If only we had more time, you could get to know each other better on the training field. Unfortunately, you’ll have to improvise.
+    <t xml:space="preserve">[name="Zofia"]  The Fartooth Knight. She's an expert archer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Just like you, she fought her way up as an independent knight, refusing to accept sponsorships from the corporations. I've heard she's even planning to form a completely self-sufficient knightclub.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  I think you'll be able to get along, and cover each other's weaknesses in battle. You'll come to understand that team battles are completely different from melees or one-on-ones.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  If only we had more time, you could get to know each other better on the training field. Unfortunately, you'll have to improvise.
 </t>
   </si>
   <si>
@@ -2508,7 +2508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I wonder what she’s like... I’m a little nervous...
+    <t xml:space="preserve">[name="Maria"]  I wonder what she's like... I'm a little nervous...
 </t>
   </si>
   <si>
@@ -2520,15 +2520,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  You’re very accustomed to such work. Running between the various arenas and joining in countless teleconferences.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Ah, no... There’s nothing to be said for someone like me...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Your appearance is somewhat sloppy. One’s appearance is also an important bargaining chip, is it not?
+    <t xml:space="preserve">[name="Spokesman Czarny"]  You're very accustomed to such work. Running between the various arenas and joining in countless teleconferences.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  Ah, no... There's nothing to be said for someone like me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Your appearance is somewhat sloppy. One's appearance is also an important bargaining chip, is it not?
 </t>
   </si>
   <si>
@@ -2540,7 +2540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I don’t dislike employees like you. Only those who have fallen to rock bottom are able to understand the cruelty we face. It is only when you have acknowledged it, that you will be able to make satisfactory decisions.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I don't dislike employees like you. Only those who have fallen to rock bottom are able to understand the cruelty we face. It is only when you have acknowledged it, that you will be able to make satisfactory decisions.
 </t>
   </si>
   <si>
@@ -2552,15 +2552,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Eh? Ah, the meeting minutes for the Snowyheel Knightclub? Don’t worry, I’ve prepared—— 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  No no no, their sponsor is an old friend of mine. They won’t trouble us much.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  It’s just for a particularly insignificant...working habit of mine.
+    <t xml:space="preserve">[name="Corporate Employee"]  Eh? Ah, the meeting minutes for the Snowyheel Knightclub? Don't worry, I've prepared—— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  No no no, their sponsor is an old friend of mine. They won't trouble us much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  It's just for a particularly insignificant...working habit of mine.
 </t>
   </si>
   <si>
@@ -2580,7 +2580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  But you’ve proven yourself.
+    <t xml:space="preserve">[name="Zofia"]  But you've proven yourself.
 </t>
   </si>
   <si>
@@ -2592,11 +2592,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Even though you’re still very naive.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Maybe...it’s your desire to win back the glory of the Nearl family that makes you so strong.
+    <t xml:space="preserve">[name="Zofia"]  Even though you're still very naive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Maybe...it's your desire to win back the glory of the Nearl family that makes you so strong.
 </t>
   </si>
   <si>
@@ -2604,11 +2604,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  You’ve developed your own Arts techniques, but it doesn’t seem to work against particularly strong opponents, unfortunately.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  For example, if the Left-hand Knight had fought seriously from the start, you would’ve probably lost even if there were four of you.
+    <t xml:space="preserve">[name="Zofia"]  You've developed your own Arts techniques, but it doesn't seem to work against particularly strong opponents, unfortunately.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  For example, if the Left-hand Knight had fought seriously from the start, you would've probably lost even if there were four of you.
 </t>
   </si>
   <si>
@@ -2632,11 +2632,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  What? No, you’re overestimating our clients. There will definitely not be any condemnation from the audience. They’re not a particularly moral bunch. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Yes, you’re right. I am very thankful for the two... helpers you’ve provided me. 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  What? No, you're overestimating our clients. There will definitely not be any condemnation from the audience. They're not a particularly moral bunch. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Yes, you're right. I am very thankful for the two... helpers you've provided me. 
 </t>
   </si>
   <si>
@@ -2660,23 +2660,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Oh... you’re back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Didn’t they promise no rain? Why’d it still end up raining...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Hmph... You really can’t believe all that crap they put on TV, whether it's news, sports or weather forecasts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  What about Maria! Ain’t the competition today? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  I’ve got food and wine for the both of you.
+    <t xml:space="preserve">[name="Bald Marcin"]  Oh... you're back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Didn't they promise no rain? Why'd it still end up raining...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Hmph... You really can't believe all that crap they put on TV, whether it's news, sports or weather forecasts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  What about Maria! Ain't the competition today? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  I've got food and wine for the both of you.
 </t>
   </si>
   <si>
@@ -2684,23 +2684,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...Whaddya mean how was it? It’s been so long... There’s a few less this year too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Always less of us to visit the captain’s grave.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  *Sigh*... She said she’d challenge me to a drinking contest, but she left before the booze was even poured.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...Forget it, it’s all in the past.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Yeah... Who’d have expected that the two of you really stayed single your entire lives for her sake.
+    <t xml:space="preserve">[name="Old Knight"]  ...Whaddya mean how was it? It's been so long... There's a few less this year too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Always less of us to visit the captain's grave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  *Sigh*... She said she'd challenge me to a drinking contest, but she left before the booze was even poured.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  ...Forget it, it's all in the past.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Yeah... Who'd have expected that the two of you really stayed single your entire lives for her sake.
 </t>
   </si>
   <si>
@@ -2708,7 +2708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  That’s right! Enough talk about who’s still alive and who’s not. We’re here to enjoy Maria’s performance! 
+    <t xml:space="preserve">[name="Old Craftsman"]  That's right! Enough talk about who's still alive and who's not. We're here to enjoy Maria's performance! 
 </t>
   </si>
   <si>
@@ -2724,7 +2724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Here’s a great bargain for today, self-service for all drinks. Help me watch the joint.
+    <t xml:space="preserve">[name="Bald Marcin"]  Here's a great bargain for today, self-service for all drinks. Help me watch the joint.
 </t>
   </si>
   <si>
@@ -2736,7 +2736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Where’re you going?
+    <t xml:space="preserve">[name="Old Knight"]  Where're you going?
 </t>
   </si>
   <si>
@@ -2752,11 +2752,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  That’s called business.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Newsboy"]  Good day, sir. Here’s the midday sports news.
+    <t xml:space="preserve">[name="Old Craftsman"]  That's called business.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Newsboy"]  Good day, sir. Here's the midday sports news.
 </t>
   </si>
   <si>
@@ -2772,7 +2772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  ——Wait, what’s this?
+    <t xml:space="preserve">[name="Bald Marcin"]  ——Wait, what's this?
 </t>
   </si>
   <si>
@@ -2780,19 +2780,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  The previous match just ended, and the blood of the 'Softwind' Knight still stains the ground. But that’s just seasoning for the next battle!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  No doubt, everybody’s here today to witness the splendor of Nearl——! This lassie here may yet be young, but she’s already done miracles before our very eyes! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  We’ll have an extra short break. In just ten minutes the temporary duo of Maria Nearl and the Fartooth Knight will——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Go against this year’s rookies——The alliance of vengeance formed by elites of past years who’ve failed to enter the Major——The Snowyheel Knightclub!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  The previous match just ended, and the blood of the 'Softwind' Knight still stains the ground. But that's just seasoning for the next battle!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  No doubt, everybody's here today to witness the splendor of Nearl——! This lassie here may yet be young, but she's already done miracles before our very eyes! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  We'll have an extra short break. In just ten minutes the temporary duo of Maria Nearl and the Fartooth Knight will——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Go against this year's rookies——The alliance of vengeance formed by elites of past years who've failed to enter the Major——The Snowyheel Knightclub!
 </t>
   </si>
   <si>
@@ -2804,7 +2804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Right! They’re much better now! It’s all thanks to you taking care of me!  
+    <t xml:space="preserve">[name="Maria"]  Right! They're much better now! It's all thanks to you taking care of me!  
 </t>
   </si>
   <si>
@@ -2816,23 +2816,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Hmm, she’s late... Fartooth has always been bad with time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  It doesn’t matter, as long as she makes it here before the match——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arena Worker"]  Miss Maria! Miss Maria Nearl! Please head over to the waiting room and get ready! We’re about to begin!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Ah. It’s about to begin...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  I’d better get going, Zofia.
+    <t xml:space="preserve">[name="Zofia"]  Hmm, she's late... Fartooth has always been bad with time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  It doesn't matter, as long as she makes it here before the match——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arena Worker"]  Miss Maria! Miss Maria Nearl! Please head over to the waiting room and get ready! We're about to begin!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Ah. It's about to begin...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  I'd better get going, Zofia.
 </t>
   </si>
   <si>
@@ -2840,19 +2840,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  ...Zofia? Where’s Maria? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Marcin? Why’re you here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Oh... I get it. You’re still waiting for the Fartooth Knight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  She’s not coming.
+    <t xml:space="preserve">[name="Bald Marcin"]  ...Zofia? Where's Maria? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Marcin? Why're you here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Oh... I get it. You're still waiting for the Fartooth Knight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  She's not coming.
 </t>
   </si>
   <si>
@@ -2872,7 +2872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  At least, that’s what the paper says.
+    <t xml:space="preserve">[name="Bald Marcin"]  At least, that's what the paper says.
 </t>
   </si>
   <si>
@@ -2896,11 +2896,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Maria has to forfeit! We’re out of time, follow me—— 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  No rest for the wicked, eh——What? You still think we’re letting them rest too much? Come on, we’ve got to at least act like we’re clearing up the battlefield, alright?  
+    <t xml:space="preserve">[name="Zofia"]  Maria has to forfeit! We're out of time, follow me—— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  No rest for the wicked, eh——What? You still think we're letting them rest too much? Come on, we've got to at least act like we're clearing up the battlefield, alright?  
 </t>
   </si>
   <si>
@@ -2908,15 +2908,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Speaking for myself here, as someone who’s followed every step this super rookie has taken, I’ve personally watched this prize pool grow to the king’s ransom it is today!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Let’s look at the numbers! Right here, right now, in every city, every village in the country, the crowd watching this fight is in the hundreds of thousands!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Who do we have to thank for this?! I’m sure we all know! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Speaking for myself here, as someone who's followed every step this super rookie has taken, I've personally watched this prize pool grow to the king's ransom it is today!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Let's look at the numbers! Right here, right now, in every city, every village in the country, the crowd watching this fight is in the hundreds of thousands!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Who do we have to thank for this?! I'm sure we all know! 
 </t>
   </si>
   <si>
@@ -2932,7 +2932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Presenting——The hottest rookie of this season! Nearl’s little knight, Maria Nearl!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Presenting——The hottest rookie of this season! Nearl's little knight, Maria Nearl!  
 </t>
   </si>
   <si>
@@ -2940,7 +2940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  ...No, I can’t give up easily. To give up before I’ve even begun is to disrespect knighthood!
+    <t xml:space="preserve">[name="Maria"]  ...No, I can't give up easily. To give up before I've even begun is to disrespect knighthood!
 </t>
   </si>
   <si>
@@ -2964,15 +2964,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Male Tourist"]  Wait, what’s this? Am I seeing things? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Female Tourist"]  N-no, there’s a weird smell, it’s really gross——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  What’s happening?! 
+    <t xml:space="preserve">[name="Male Tourist"]  Wait, what's this? Am I seeing things? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Female Tourist"]  N-no, there's a weird smell, it's really gross——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  What's happening?! 
 </t>
   </si>
   <si>
@@ -3004,11 +3004,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  ...No. Not them. It can’t be them.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  That’s——
+    <t xml:space="preserve">[name="Left-hand Knight"]  ...No. Not them. It can't be them.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Left-hand Knight"]  That's——
 </t>
   </si>
   <si>
@@ -3024,11 +3024,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  I know! I know! Let’s go!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  That thing... They’re trying to kill Maria!
+    <t xml:space="preserve">[name="Old Craftsman"]  I know! I know! Let's go!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  That thing... They're trying to kill Maria!
 </t>
   </si>
   <si>
@@ -3040,7 +3040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Don’t be so nervous. We’re here to stop anyone from coming into the arena.
+    <t xml:space="preserve">[name="Platinum"]  Don't be so nervous. We're here to stop anyone from coming into the arena.
 </t>
   </si>
   <si>
@@ -3052,23 +3052,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  If that Młynar dares try anything... I’ll deal with him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  Even though it’ll be a huge pain... *Sigh*.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Ugh, so these are the Snowyheel Knightclub’s...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  (Hey! What’s going on? The deal for the day was——what? Huh? I can’t figure out which of them is——)   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  ...The Snowyheel Knightclub’s——
+    <t xml:space="preserve">[name="Platinum"]  If that Młynar dares try anything... I'll deal with him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  Even though it'll be a huge pain... *Sigh*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Ugh, so these are the Snowyheel Knightclub's...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  (Hey! What's going on? The deal for the day was——what? Huh? I can't figure out which of them is——)   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  ...The Snowyheel Knightclub's——
 </t>
   </si>
   <si>
@@ -3092,7 +3092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tourist"]  This... Isn’t this too scary?
+    <t xml:space="preserve">[name="Tourist"]  This... Isn't this too scary?
 </t>
   </si>
   <si>
@@ -3100,11 +3100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tourist"]  Hey... Isn’t this going to be an amazing show? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Alright, then let’s start the ma——
+    <t xml:space="preserve">[name="Tourist"]  Hey... Isn't this going to be an amazing show? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Alright, then let's start the ma——
 </t>
   </si>
   <si>
@@ -3132,7 +3132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  T-They’re already exchanging lightning-fast blows before the match has even started! Is this a problem? Of course not! In fact, the match started the moment the knights stepped onto the field!    
+    <t xml:space="preserve">[name="Greatmouth Mob"]  T-They're already exchanging lightning-fast blows before the match has even started! Is this a problem? Of course not! In fact, the match started the moment the knights stepped onto the field!    
 </t>
   </si>
   <si>
@@ -3152,7 +3152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  My Arts are being suppressed...? My wounds, I can’t heal them...? 
+    <t xml:space="preserve">[name="Maria"]  My Arts are being suppressed...? My wounds, I can't heal them...? 
 </t>
   </si>
   <si>
@@ -3168,7 +3168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (No, don’t even think of giving up, think of a way to——)
+    <t xml:space="preserve">[name="Maria"]  (No, don't even think of giving up, think of a way to——)
 </t>
   </si>
   <si>
@@ -3176,7 +3176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Then... let’s try again!
+    <t xml:space="preserve">[name="Maria"]  Then... let's try again!
 </t>
   </si>
   <si>
@@ -3188,7 +3188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  T-This is unbelievable! What just happened?! There was a sudden explosion on Maria’s body, and the Corrupted Knight followed up with a hit that sent her flying!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  T-This is unbelievable! What just happened?! There was a sudden explosion on Maria's body, and the Corrupted Knight followed up with a hit that sent her flying!  
 </t>
   </si>
   <si>
@@ -3204,7 +3204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Blood...? Why... why aren’t my Arts working? 
+    <t xml:space="preserve">[name="Maria"]  Blood...? Why... why aren't my Arts working? 
 </t>
   </si>
   <si>
@@ -3248,11 +3248,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  D-Don’t run so fast. I’m not a Kuranta——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  Sorry, you’re not allowed back here.
+    <t xml:space="preserve">[name="Old Craftsman"]  D-Don't run so fast. I'm not a Kuranta——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  Sorry, you're not allowed back here.
 </t>
   </si>
   <si>
@@ -3264,11 +3264,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Your bloodline had you fighting all over the world. You got to run and howl across the prairies of no-man’s-land.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  And you, senior craftsman of the Craftsman’s Guild, Kowal.
+    <t xml:space="preserve">[name="Platinum"]  Your bloodline had you fighting all over the world. You got to run and howl across the prairies of no-man's-land.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  And you, senior craftsman of the Craftsman's Guild, Kowal.
 </t>
   </si>
   <si>
@@ -3276,11 +3276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  You’re both fine, upstanding Kazimierz citizens. Could you just, like, leave?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...The way you talk ain’t nothing like that lil’ girl I once met, Platinum.
+    <t xml:space="preserve">[name="Platinum"]  You're both fine, upstanding Kazimierz citizens. Could you just, like, leave?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  ...The way you talk ain't nothing like that lil' girl I once met, Platinum.
 </t>
   </si>
   <si>
@@ -3296,11 +3296,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...Ah, so that’s how it is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  I heard that the last Platinum’s first job was to assassinate a campaign knight. A really pretty lady, named——
+    <t xml:space="preserve">[name="Platinum"]  ...Ah, so that's how it is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  I heard that the last Platinum's first job was to assassinate a campaign knight. A really pretty lady, named——
 </t>
   </si>
   <si>
@@ -3320,7 +3320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...Keep watching the perimeter. I’ll deal with this.
+    <t xml:space="preserve">[name="Platinum"]  ...Keep watching the perimeter. I'll deal with this.
 </t>
   </si>
   <si>
@@ -3332,15 +3332,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  I really don’t want to fight you. Can we not just take a step backwards?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Hah! That’s funny. An assassin of the Armorless Union has a soft heart? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Don’t worry, I won’t go all out against a young lass like you. When you’ve given up, we’ll be off to rescue Maria——
+    <t xml:space="preserve">[name="Platinum"]  I really don't want to fight you. Can we not just take a step backwards?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Hah! That's funny. An assassin of the Armorless Union has a soft heart? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Don't worry, I won't go all out against a young lass like you. When you've given up, we'll be off to rescue Maria——
 </t>
   </si>
   <si>
@@ -3352,27 +3352,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  I... I’m fine. Just a scratch. I just didn’t expect her to draw her bow that quickly and accurately...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Yeah, she’s done talking. She might be young and immature—— 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  But she’s still above the dregs of the Armorless Union, as the Platinum in that 'one-two-three inverted triangle' of theirs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  Umm... I’ll take that as a compliment?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Get ready, Kowal. Let’s see if you’ve still got it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Hah! I’ve long suspected that you’re half-blind now, V. 
+    <t xml:space="preserve">[name="Old Knight"]  I... I'm fine. Just a scratch. I just didn't expect her to draw her bow that quickly and accurately...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Yeah, she's done talking. She might be young and immature—— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  But she's still above the dregs of the Armorless Union, as the Platinum in that 'one-two-three inverted triangle' of theirs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  Umm... I'll take that as a compliment?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Get ready, Kowal. Let's see if you've still got it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Hah! I've long suspected that you're half-blind now, V. 
 </t>
   </si>
   <si>
@@ -3380,7 +3380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ——Don’t sprain your backs.
+    <t xml:space="preserve">[name="Platinum"]  ——Don't sprain your backs.
 </t>
   </si>
   <si>
@@ -3396,7 +3396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t worry so much... She’s still with you, right?
+    <t xml:space="preserve">Don't worry so much... She's still with you, right?
 </t>
   </si>
   <si>
@@ -3404,11 +3404,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t worry, it’s fine. I swear——knight’s honor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y-You don’t need to do that. Go on, I believe in you.
+    <t xml:space="preserve">Don't worry, it's fine. I swear——knight's honor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-You don't need to do that. Go on, I believe in you.
 </t>
   </si>
   <si>
@@ -3424,7 +3424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (My wounds are rotting, I can’t heal them...! Losing blood... It’s cold...) 
+    <t xml:space="preserve">[name="Maria"]  (My wounds are rotting, I can't heal them...! Losing blood... It's cold...) 
 </t>
   </si>
   <si>
@@ -3488,7 +3488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corrupted Knight"]  Guh... It’s over.
+    <t xml:space="preserve">[name="Corrupted Knight"]  Guh... It's over.
 </t>
   </si>
   <si>
@@ -3496,7 +3496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Maria lies on the ground, unmoving. This sorrowful scene is reflected in the Sarkaz knight’s emotionless eyes.
+    <t xml:space="preserve">Maria lies on the ground, unmoving. This sorrowful scene is reflected in the Sarkaz knight's emotionless eyes.
 </t>
   </si>
   <si>
@@ -3504,7 +3504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Perhaps the clouds blocking out the sun have dissipated, or perhaps the angle of the sunlight just happened to pass through the building’s shade. 
+    <t xml:space="preserve">Perhaps the clouds blocking out the sun have dissipated, or perhaps the angle of the sunlight just happened to pass through the building's shade. 
 </t>
   </si>
   <si>
